--- a/WebContent/static/template/excel/template.xlsx
+++ b/WebContent/static/template/excel/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="数据导入示例" sheetId="1" r:id="rId1"/>
@@ -559,10 +559,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="27">
@@ -616,16 +616,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,8 +639,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -647,22 +655,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,9 +675,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,6 +707,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -701,53 +731,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,6 +751,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -787,187 +787,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,12 +996,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1011,7 +1048,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,65 +1083,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,10 +1099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1111,133 +1111,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1264,9 +1264,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1280,6 +1277,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1607,8 +1607,8 @@
   <sheetPr/>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1680,40 +1680,40 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -1722,7 +1722,7 @@
       <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -1743,10 +1743,10 @@
       <c r="W2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="Z2" s="6" t="s">
@@ -1760,34 +1760,34 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:28">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>43739</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1796,320 +1796,320 @@
       <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>42</v>
       </c>
       <c r="R3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AB1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"男,女"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
+      <formula1>"中国共产党党员,中国共产党预备党员,中国共产主义青年团团员,中国国民党革命委员会会员,中国民主同盟盟员,中国民主建国会会员,中国民主促进会会员,群众"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"户籍,流动,境外,未落户"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>"未婚,已婚,初婚,再婚,复婚,丧偶,离婚,未说明的婚姻状况"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"男,女"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"汉族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,壮族,布依族,朝鲜族,满族,侗族,瑶族,白族,土家族,哈尼族,哈萨克族,傣族,黎族,傈僳族,佤族,畲族,高山族,拉祜族,水族,东乡族,纳西族,景颇族,柯尔克孜族,土族,达斡尔族,仫佬族,羌族,布朗族,撒拉族,毛难族,仡佬族,锡伯族,阿昌族,普米族,塔吉克族,怒族,乌孜别克族,俄罗斯族,鄂温克族,保安族,裕固族,京族,塔塔尔族,独龙族,鄂伦春族,赫哲族,门巴族,珞巴族,基诺族,德昂族,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
-      <formula1>"无宗教信仰,佛教,喇嘛教,道教,天主教,基督教,东正教,伊斯兰教,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
-      <formula1>"中国共产党党员,中国共产党预备党员,中国共产主义青年团团员,中国国民党革命委员会会员,中国民主同盟盟员,中国民主建国会会员,中国民主促进会会员,群众"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
+      <formula1>"未婚,已婚,初婚,再婚,复婚,丧偶,离婚,未说明的婚姻状况"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
       <formula1>"研究生教育,博士研究生毕业,博士研究生肄业,硕士研究生毕业,硕士研究生肄业,研究生班毕业,研究生班肄业,大学本科教育,大学本科毕业,大学本科肄业,大学普通班毕业,大学专科教育,大学专科毕业,大学专科肄业,中等职业教育,职业高中毕业,技工学校毕业,普通高级中学教育,高中以下,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
+      <formula1>"无宗教信仰,佛教,喇嘛教,道教,天主教,基督教,东正教,伊斯兰教,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2124,12 +2124,22 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="23.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="31.5" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="12" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
